--- a/Modulo 3b/E1_Despacho_Economico_Basico_Clasico.xlsx
+++ b/Modulo 3b/E1_Despacho_Economico_Basico_Clasico.xlsx
@@ -1,65 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{C0D861E7-0F92-5647-875F-72CADF3E2C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D209C8D5-68C5-8E47-84A9-15A327C823E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2F1907-1F74-A74F-AE5A-5615BF18D794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="2800" windowWidth="32700" windowHeight="17560" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
     <sheet name="direct" sheetId="2" r:id="rId2"/>
-    <sheet name="Sensitivity Report 1" sheetId="6" r:id="rId3"/>
-    <sheet name="NLP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">NLP!$G$11:$G$12</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">NLP!$G$10</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">NLP!$C$13</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">NLP!$K$19</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
-  </definedNames>
   <calcPr calcId="191029" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -523,93 +498,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-  </si>
-  <si>
-    <t>Microsoft Excel 16.47 Sensitivity Report</t>
-  </si>
-  <si>
-    <t>Variable Cells</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Reduced</t>
-  </si>
-  <si>
-    <t>Gradient</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Lagrange</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Worksheet: [Despacho_Economico_Basico.xlsx]NLP</t>
-  </si>
-  <si>
-    <t>Report Created: 3/28/21 11:41:36 AM</t>
-  </si>
-  <si>
-    <t>$G$11</t>
-  </si>
-  <si>
-    <t>PG1 Ejemplo 1: Despacho Económico Básico</t>
-  </si>
-  <si>
-    <t>$G$12</t>
-  </si>
-  <si>
-    <t>$G$13</t>
-  </si>
-  <si>
-    <t>PG1+PG2 Ejemplo 1: Despacho Económico Básico</t>
   </si>
 </sst>
 </file>
@@ -619,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -721,24 +609,8 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,26 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -837,50 +691,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -926,21 +742,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1096,105 +897,6 @@
         <a:xfrm>
           <a:off x="254000" y="0"/>
           <a:ext cx="2120900" cy="869413"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>440592</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58E9258-21B0-A940-AC1F-FC32760A788C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="254000" y="0"/>
-          <a:ext cx="2116992" cy="861598"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>143784</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>67732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>440267</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127913</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B754B6C8-B53D-FB4E-84DF-7975E6AF8B5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6112784" y="1642532"/>
-          <a:ext cx="6104616" cy="2727181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCFC435-EA30-034D-BA4E-88C076BED87F}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2047,463 +1749,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D645412E-C371-0144-90E2-7476387808FE}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="28">
-        <v>433.33333267545385</v>
-      </c>
-      <c r="E9" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
-        <v>166.66666832454609</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="29">
-        <v>600.00000099999988</v>
-      </c>
-      <c r="E15" s="34">
-        <v>41.666679382324219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
-  <dimension ref="A1:M33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" style="5" customWidth="1"/>
-    <col min="10" max="13" width="6.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7">
-        <f>G11+G12</f>
-        <v>600.00000099999988</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="24">
-        <f>K14+L14*G11+(1/2)*M14*G11^2</f>
-        <v>13461.111083699467</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="21">
-        <v>433.33333267545385</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="25">
-        <f>K15+L15*G12+(1/2)*M15*G12^2</f>
-        <v>5755.5556246338647</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="21">
-        <v>166.66666832454609</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="35">
-        <f>SUM(C11:C12)</f>
-        <v>19216.66670833333</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="E14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="33">
-        <f>'Sensitivity Report 1'!E15</f>
-        <v>41.666679382324219</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <f>database!C13</f>
-        <v>100</v>
-      </c>
-      <c r="L14" s="8">
-        <f>database!D13</f>
-        <v>20</v>
-      </c>
-      <c r="M14" s="8">
-        <f>database!E13</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="24">
-        <f>G14*G11</f>
-        <v>18055.561038262174</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10">
-        <v>2</v>
-      </c>
-      <c r="K15" s="10">
-        <f>database!C14</f>
-        <v>200</v>
-      </c>
-      <c r="L15" s="10">
-        <f>database!D14</f>
-        <v>25</v>
-      </c>
-      <c r="M15" s="10">
-        <f>database!E14</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25">
-        <f>G14*G12</f>
-        <v>6944.446632799034</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="26">
-        <f>SUM(C15:C16)</f>
-        <v>25000.007671061208</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="24">
-        <f>C15-C11</f>
-        <v>4594.4499545627077</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="11">
-        <f>database!C18</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="25">
-        <f>C16-C12</f>
-        <v>1188.8910081651693</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="26">
-        <f>SUM(C19:C20)</f>
-        <v>5783.340962727877</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151F3C348D783E41B50C3FE538E08429" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72b357acdcab8249a33e8a0e342b85c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="08a428ba-54e0-4a87-8abc-efd4c9075b52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="969707333d9532909a815d793c2422b5" ns2:_="">
     <xsd:import namespace="08a428ba-54e0-4a87-8abc-efd4c9075b52"/>
@@ -2647,15 +1902,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2663,13 +1909,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084430BF-D12E-4672-A3A5-DF92CD1568F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30FC1816-6BAB-46A0-B7B8-825A1F24D160}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30FC1816-6BAB-46A0-B7B8-825A1F24D160}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{084430BF-D12E-4672-A3A5-DF92CD1568F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="08a428ba-54e0-4a87-8abc-efd4c9075b52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA74057-EF54-42EF-A43A-58D13203D2D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA74057-EF54-42EF-A43A-58D13203D2D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>